--- a/EDA/EDA.xlsx
+++ b/EDA/EDA.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="156" windowWidth="22056" windowHeight="9336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="profile_all" sheetId="1" r:id="rId1"/>
     <sheet name="als_" sheetId="2" r:id="rId2"/>
     <sheet name="als_temp_部分值分布统计" sheetId="3" r:id="rId3"/>
-    <sheet name="alm" sheetId="6" r:id="rId4"/>
-    <sheet name="构造序列" sheetId="7" r:id="rId5"/>
+    <sheet name="alm_0" sheetId="6" r:id="rId4"/>
+    <sheet name="alm_0_部分值分布统计" sheetId="8" r:id="rId5"/>
+    <sheet name="构造序列" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">alm_0!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">als_!$A$1:$G$834</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="2514">
   <si>
     <t>cus_num</t>
   </si>
@@ -7537,6 +7539,55 @@
   </si>
   <si>
     <t>alm_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nan值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero_counts</t>
+  </si>
+  <si>
+    <t>nan_counts</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Nan值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nan值处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillna(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0值比Nan值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7544,7 +7595,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7569,16 +7623,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -7612,13 +7686,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7634,11 +7748,48 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7646,6 +7797,54 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8040,16 +8239,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:G834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8085,7 +8284,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -8100,7 +8299,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8115,7 +8314,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -8130,7 +8329,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8145,7 +8344,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -8160,14 +8359,14 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4"/>
@@ -8175,7 +8374,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -8190,7 +8389,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -8205,14 +8404,14 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="4"/>
@@ -8220,7 +8419,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -8235,7 +8434,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -8250,7 +8449,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -8265,7 +8464,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -8280,7 +8479,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -8304,7 +8503,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8928,7 +9127,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -8952,7 +9151,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -9240,7 +9439,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -9264,7 +9463,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -9552,7 +9751,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -9576,7 +9775,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -9600,7 +9799,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -9624,7 +9823,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -9648,7 +9847,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -9672,7 +9871,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -9696,7 +9895,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -10320,7 +10519,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -10344,7 +10543,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -10632,7 +10831,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -10656,7 +10855,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -10944,7 +11143,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -10968,7 +11167,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -10992,7 +11191,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -11016,7 +11215,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -11040,7 +11239,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -11064,7 +11263,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -11088,7 +11287,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -11112,7 +11311,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -11136,7 +11335,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -11712,7 +11911,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -11736,7 +11935,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -11808,7 +12007,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -11832,7 +12031,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -11904,7 +12103,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -12024,7 +12223,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -12048,7 +12247,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -12120,7 +12319,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -12144,7 +12343,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -12216,7 +12415,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -12336,7 +12535,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -12360,7 +12559,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -12384,7 +12583,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>184</v>
       </c>
@@ -12408,7 +12607,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>185</v>
       </c>
@@ -12432,7 +12631,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>186</v>
       </c>
@@ -12456,7 +12655,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>187</v>
       </c>
@@ -12480,7 +12679,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>188</v>
       </c>
@@ -12504,7 +12703,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>189</v>
       </c>
@@ -12528,7 +12727,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>190</v>
       </c>
@@ -13104,7 +13303,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>214</v>
       </c>
@@ -13128,7 +13327,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>215</v>
       </c>
@@ -13200,7 +13399,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>218</v>
       </c>
@@ -13224,7 +13423,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>219</v>
       </c>
@@ -13416,7 +13615,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>227</v>
       </c>
@@ -13440,7 +13639,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>228</v>
       </c>
@@ -13512,7 +13711,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>231</v>
       </c>
@@ -13536,7 +13735,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>232</v>
       </c>
@@ -13728,7 +13927,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>240</v>
       </c>
@@ -13752,7 +13951,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>241</v>
       </c>
@@ -13776,7 +13975,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>242</v>
       </c>
@@ -13800,7 +13999,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>243</v>
       </c>
@@ -13824,7 +14023,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>244</v>
       </c>
@@ -13848,7 +14047,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>245</v>
       </c>
@@ -13872,7 +14071,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>246</v>
       </c>
@@ -13896,7 +14095,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>247</v>
       </c>
@@ -13920,7 +14119,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>248</v>
       </c>
@@ -14496,7 +14695,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>272</v>
       </c>
@@ -14520,7 +14719,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>273</v>
       </c>
@@ -14592,7 +14791,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>276</v>
       </c>
@@ -14616,7 +14815,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>277</v>
       </c>
@@ -14664,7 +14863,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>279</v>
       </c>
@@ -14688,7 +14887,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>280</v>
       </c>
@@ -14736,7 +14935,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>282</v>
       </c>
@@ -14760,7 +14959,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>283</v>
       </c>
@@ -14808,7 +15007,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>285</v>
       </c>
@@ -14832,7 +15031,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>286</v>
       </c>
@@ -14904,7 +15103,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>289</v>
       </c>
@@ -14928,7 +15127,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>290</v>
       </c>
@@ -14976,7 +15175,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>292</v>
       </c>
@@ -15000,7 +15199,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>293</v>
       </c>
@@ -15048,7 +15247,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>295</v>
       </c>
@@ -15072,7 +15271,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>296</v>
       </c>
@@ -15120,7 +15319,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>298</v>
       </c>
@@ -15144,7 +15343,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>299</v>
       </c>
@@ -15168,7 +15367,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>300</v>
       </c>
@@ -15192,7 +15391,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>301</v>
       </c>
@@ -15216,7 +15415,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>302</v>
       </c>
@@ -15240,7 +15439,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>303</v>
       </c>
@@ -15264,7 +15463,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>304</v>
       </c>
@@ -15288,7 +15487,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>305</v>
       </c>
@@ -15312,7 +15511,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>306</v>
       </c>
@@ -15336,7 +15535,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>307</v>
       </c>
@@ -15360,7 +15559,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>308</v>
       </c>
@@ -15888,7 +16087,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>330</v>
       </c>
@@ -15912,7 +16111,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>331</v>
       </c>
@@ -15984,7 +16183,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>334</v>
       </c>
@@ -16008,7 +16207,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>335</v>
       </c>
@@ -16056,7 +16255,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>337</v>
       </c>
@@ -16080,7 +16279,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>338</v>
       </c>
@@ -16128,7 +16327,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>340</v>
       </c>
@@ -16152,7 +16351,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>341</v>
       </c>
@@ -16200,7 +16399,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>343</v>
       </c>
@@ -16224,7 +16423,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>344</v>
       </c>
@@ -16296,7 +16495,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>347</v>
       </c>
@@ -16320,7 +16519,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>348</v>
       </c>
@@ -16368,7 +16567,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>350</v>
       </c>
@@ -16392,7 +16591,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>351</v>
       </c>
@@ -16440,7 +16639,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>353</v>
       </c>
@@ -16464,7 +16663,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>354</v>
       </c>
@@ -16512,7 +16711,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>356</v>
       </c>
@@ -16536,7 +16735,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>357</v>
       </c>
@@ -16560,7 +16759,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>358</v>
       </c>
@@ -16584,7 +16783,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>359</v>
       </c>
@@ -16608,7 +16807,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>360</v>
       </c>
@@ -16632,7 +16831,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>361</v>
       </c>
@@ -16656,7 +16855,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>362</v>
       </c>
@@ -16680,7 +16879,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>363</v>
       </c>
@@ -16704,7 +16903,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>364</v>
       </c>
@@ -16728,7 +16927,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>365</v>
       </c>
@@ -16752,7 +16951,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>366</v>
       </c>
@@ -16776,7 +16975,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>367</v>
       </c>
@@ -16800,7 +16999,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>368</v>
       </c>
@@ -16824,7 +17023,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>369</v>
       </c>
@@ -16848,7 +17047,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>370</v>
       </c>
@@ -16872,7 +17071,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>371</v>
       </c>
@@ -16896,7 +17095,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>372</v>
       </c>
@@ -16920,7 +17119,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>373</v>
       </c>
@@ -16944,7 +17143,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>374</v>
       </c>
@@ -17112,7 +17311,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>381</v>
       </c>
@@ -17136,7 +17335,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>382</v>
       </c>
@@ -17160,7 +17359,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>383</v>
       </c>
@@ -17184,7 +17383,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>384</v>
       </c>
@@ -17208,7 +17407,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>385</v>
       </c>
@@ -17256,7 +17455,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>387</v>
       </c>
@@ -17280,7 +17479,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>388</v>
       </c>
@@ -17328,7 +17527,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>390</v>
       </c>
@@ -17352,7 +17551,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>391</v>
       </c>
@@ -17376,7 +17575,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>392</v>
       </c>
@@ -17400,7 +17599,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>393</v>
       </c>
@@ -17472,7 +17671,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>396</v>
       </c>
@@ -17496,7 +17695,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>397</v>
       </c>
@@ -17520,7 +17719,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>398</v>
       </c>
@@ -17544,7 +17743,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>399</v>
       </c>
@@ -17568,7 +17767,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>400</v>
       </c>
@@ -17592,7 +17791,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>401</v>
       </c>
@@ -17616,7 +17815,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>402</v>
       </c>
@@ -17664,7 +17863,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>404</v>
       </c>
@@ -17688,7 +17887,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>405</v>
       </c>
@@ -17736,7 +17935,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>407</v>
       </c>
@@ -17760,7 +17959,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>408</v>
       </c>
@@ -17808,7 +18007,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>410</v>
       </c>
@@ -17832,7 +18031,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>411</v>
       </c>
@@ -17880,7 +18079,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>413</v>
       </c>
@@ -17904,7 +18103,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>414</v>
       </c>
@@ -17928,7 +18127,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>415</v>
       </c>
@@ -17976,7 +18175,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>417</v>
       </c>
@@ -18000,7 +18199,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>418</v>
       </c>
@@ -18048,7 +18247,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>420</v>
       </c>
@@ -18072,7 +18271,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>421</v>
       </c>
@@ -18120,7 +18319,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>423</v>
       </c>
@@ -18144,7 +18343,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>424</v>
       </c>
@@ -18192,7 +18391,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>426</v>
       </c>
@@ -18216,7 +18415,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>427</v>
       </c>
@@ -18240,7 +18439,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>428</v>
       </c>
@@ -18264,7 +18463,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>429</v>
       </c>
@@ -18288,7 +18487,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>430</v>
       </c>
@@ -18312,7 +18511,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>431</v>
       </c>
@@ -18336,7 +18535,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>432</v>
       </c>
@@ -18360,7 +18559,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>433</v>
       </c>
@@ -18384,7 +18583,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>434</v>
       </c>
@@ -18408,7 +18607,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>435</v>
       </c>
@@ -18432,7 +18631,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>436</v>
       </c>
@@ -18456,7 +18655,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>437</v>
       </c>
@@ -18480,7 +18679,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>438</v>
       </c>
@@ -18504,7 +18703,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>439</v>
       </c>
@@ -18528,7 +18727,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>440</v>
       </c>
@@ -18552,7 +18751,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>441</v>
       </c>
@@ -18576,7 +18775,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>442</v>
       </c>
@@ -18600,7 +18799,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>443</v>
       </c>
@@ -18624,7 +18823,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>444</v>
       </c>
@@ -18648,7 +18847,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>445</v>
       </c>
@@ -18672,7 +18871,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>446</v>
       </c>
@@ -18696,7 +18895,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>447</v>
       </c>
@@ -18720,7 +18919,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>448</v>
       </c>
@@ -18744,7 +18943,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>449</v>
       </c>
@@ -18768,7 +18967,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>450</v>
       </c>
@@ -18936,7 +19135,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>457</v>
       </c>
@@ -18960,7 +19159,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>458</v>
       </c>
@@ -18984,7 +19183,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>459</v>
       </c>
@@ -19008,7 +19207,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>460</v>
       </c>
@@ -19032,7 +19231,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>461</v>
       </c>
@@ -19080,7 +19279,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>463</v>
       </c>
@@ -19104,7 +19303,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>464</v>
       </c>
@@ -19152,7 +19351,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>466</v>
       </c>
@@ -19176,7 +19375,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>467</v>
       </c>
@@ -19200,7 +19399,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>468</v>
       </c>
@@ -19224,7 +19423,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>469</v>
       </c>
@@ -19296,7 +19495,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>472</v>
       </c>
@@ -19320,7 +19519,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>473</v>
       </c>
@@ -19344,7 +19543,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>474</v>
       </c>
@@ -19368,7 +19567,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>475</v>
       </c>
@@ -19392,7 +19591,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>476</v>
       </c>
@@ -19416,7 +19615,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>477</v>
       </c>
@@ -19440,7 +19639,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>478</v>
       </c>
@@ -19488,7 +19687,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>480</v>
       </c>
@@ -19512,7 +19711,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>481</v>
       </c>
@@ -19560,7 +19759,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>483</v>
       </c>
@@ -19584,7 +19783,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>484</v>
       </c>
@@ -19632,7 +19831,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>486</v>
       </c>
@@ -19656,7 +19855,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>487</v>
       </c>
@@ -19704,7 +19903,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>489</v>
       </c>
@@ -19728,7 +19927,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>490</v>
       </c>
@@ -19752,7 +19951,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>491</v>
       </c>
@@ -19800,7 +19999,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>493</v>
       </c>
@@ -19824,7 +20023,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>494</v>
       </c>
@@ -19872,7 +20071,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>496</v>
       </c>
@@ -19896,7 +20095,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>497</v>
       </c>
@@ -19944,7 +20143,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>499</v>
       </c>
@@ -19968,7 +20167,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>500</v>
       </c>
@@ -20016,7 +20215,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>502</v>
       </c>
@@ -20040,7 +20239,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>503</v>
       </c>
@@ -20064,7 +20263,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>504</v>
       </c>
@@ -20088,7 +20287,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>505</v>
       </c>
@@ -20112,7 +20311,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>506</v>
       </c>
@@ -20136,7 +20335,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>507</v>
       </c>
@@ -20160,7 +20359,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>508</v>
       </c>
@@ -20184,7 +20383,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>509</v>
       </c>
@@ -20208,7 +20407,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>510</v>
       </c>
@@ -20232,7 +20431,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>511</v>
       </c>
@@ -20256,7 +20455,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>512</v>
       </c>
@@ -20280,7 +20479,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>513</v>
       </c>
@@ -20304,7 +20503,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>514</v>
       </c>
@@ -20328,7 +20527,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>515</v>
       </c>
@@ -20352,7 +20551,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>516</v>
       </c>
@@ -20376,7 +20575,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>517</v>
       </c>
@@ -20400,7 +20599,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>518</v>
       </c>
@@ -20424,7 +20623,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>519</v>
       </c>
@@ -20448,7 +20647,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>520</v>
       </c>
@@ -20472,7 +20671,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>521</v>
       </c>
@@ -20496,7 +20695,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>522</v>
       </c>
@@ -20520,7 +20719,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>523</v>
       </c>
@@ -20544,7 +20743,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>524</v>
       </c>
@@ -20568,7 +20767,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>525</v>
       </c>
@@ -20592,7 +20791,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>526</v>
       </c>
@@ -20616,7 +20815,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>527</v>
       </c>
@@ -20640,7 +20839,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>528</v>
       </c>
@@ -20760,7 +20959,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>533</v>
       </c>
@@ -20784,7 +20983,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>534</v>
       </c>
@@ -20808,7 +21007,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>535</v>
       </c>
@@ -20832,7 +21031,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>536</v>
       </c>
@@ -20856,7 +21055,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>537</v>
       </c>
@@ -20904,7 +21103,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>539</v>
       </c>
@@ -20928,7 +21127,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>540</v>
       </c>
@@ -20976,7 +21175,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>542</v>
       </c>
@@ -21000,7 +21199,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>543</v>
       </c>
@@ -21024,7 +21223,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>544</v>
       </c>
@@ -21048,7 +21247,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>545</v>
       </c>
@@ -21120,7 +21319,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>548</v>
       </c>
@@ -21144,7 +21343,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>549</v>
       </c>
@@ -21168,7 +21367,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>550</v>
       </c>
@@ -21192,7 +21391,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>551</v>
       </c>
@@ -21216,7 +21415,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>552</v>
       </c>
@@ -21240,7 +21439,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>553</v>
       </c>
@@ -21264,7 +21463,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>554</v>
       </c>
@@ -21312,7 +21511,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>556</v>
       </c>
@@ -21336,7 +21535,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>557</v>
       </c>
@@ -21384,7 +21583,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>559</v>
       </c>
@@ -21408,7 +21607,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>560</v>
       </c>
@@ -21456,7 +21655,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>562</v>
       </c>
@@ -21480,7 +21679,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>563</v>
       </c>
@@ -21528,7 +21727,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>565</v>
       </c>
@@ -21552,7 +21751,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>566</v>
       </c>
@@ -21576,7 +21775,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>567</v>
       </c>
@@ -21624,7 +21823,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>569</v>
       </c>
@@ -21648,7 +21847,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>570</v>
       </c>
@@ -21696,7 +21895,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>572</v>
       </c>
@@ -21720,7 +21919,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>573</v>
       </c>
@@ -21768,7 +21967,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>575</v>
       </c>
@@ -21792,7 +21991,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>576</v>
       </c>
@@ -21840,7 +22039,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>578</v>
       </c>
@@ -21864,7 +22063,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>579</v>
       </c>
@@ -21888,7 +22087,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>580</v>
       </c>
@@ -21912,7 +22111,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3">
         <v>581</v>
       </c>
@@ -21936,7 +22135,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>582</v>
       </c>
@@ -21960,7 +22159,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>583</v>
       </c>
@@ -21984,7 +22183,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>584</v>
       </c>
@@ -22008,7 +22207,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>585</v>
       </c>
@@ -22032,7 +22231,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>586</v>
       </c>
@@ -22056,7 +22255,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>587</v>
       </c>
@@ -22080,7 +22279,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>588</v>
       </c>
@@ -22104,7 +22303,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>589</v>
       </c>
@@ -22128,7 +22327,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>590</v>
       </c>
@@ -22152,7 +22351,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>591</v>
       </c>
@@ -22176,7 +22375,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>592</v>
       </c>
@@ -22200,7 +22399,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>593</v>
       </c>
@@ -22224,7 +22423,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>594</v>
       </c>
@@ -22248,7 +22447,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>595</v>
       </c>
@@ -22272,7 +22471,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>596</v>
       </c>
@@ -22296,7 +22495,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>597</v>
       </c>
@@ -22320,7 +22519,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>598</v>
       </c>
@@ -22344,7 +22543,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>599</v>
       </c>
@@ -22368,7 +22567,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>600</v>
       </c>
@@ -22392,7 +22591,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
         <v>601</v>
       </c>
@@ -22416,7 +22615,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>602</v>
       </c>
@@ -22440,7 +22639,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>603</v>
       </c>
@@ -22464,7 +22663,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>604</v>
       </c>
@@ -22584,7 +22783,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>609</v>
       </c>
@@ -22608,7 +22807,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>610</v>
       </c>
@@ -22632,7 +22831,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3">
         <v>611</v>
       </c>
@@ -22656,7 +22855,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>612</v>
       </c>
@@ -22680,7 +22879,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3">
         <v>613</v>
       </c>
@@ -22728,7 +22927,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>615</v>
       </c>
@@ -22752,7 +22951,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>616</v>
       </c>
@@ -22800,7 +22999,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>618</v>
       </c>
@@ -22824,7 +23023,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>619</v>
       </c>
@@ -22848,7 +23047,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>620</v>
       </c>
@@ -22872,7 +23071,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3">
         <v>621</v>
       </c>
@@ -22944,7 +23143,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
         <v>624</v>
       </c>
@@ -22968,7 +23167,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3">
         <v>625</v>
       </c>
@@ -22992,7 +23191,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
         <v>626</v>
       </c>
@@ -23016,7 +23215,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3">
         <v>627</v>
       </c>
@@ -23040,7 +23239,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
         <v>628</v>
       </c>
@@ -23064,7 +23263,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3">
         <v>629</v>
       </c>
@@ -23088,7 +23287,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
         <v>630</v>
       </c>
@@ -23136,7 +23335,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
         <v>632</v>
       </c>
@@ -23160,7 +23359,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3">
         <v>633</v>
       </c>
@@ -23208,7 +23407,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3">
         <v>635</v>
       </c>
@@ -23232,7 +23431,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
         <v>636</v>
       </c>
@@ -23280,7 +23479,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
         <v>638</v>
       </c>
@@ -23304,7 +23503,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3">
         <v>639</v>
       </c>
@@ -23352,7 +23551,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3">
         <v>641</v>
       </c>
@@ -23376,7 +23575,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3">
         <v>642</v>
       </c>
@@ -23400,7 +23599,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3">
         <v>643</v>
       </c>
@@ -23448,7 +23647,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3">
         <v>645</v>
       </c>
@@ -23472,7 +23671,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3">
         <v>646</v>
       </c>
@@ -23520,7 +23719,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3">
         <v>648</v>
       </c>
@@ -23544,7 +23743,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3">
         <v>649</v>
       </c>
@@ -23592,7 +23791,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
         <v>651</v>
       </c>
@@ -23616,7 +23815,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3">
         <v>652</v>
       </c>
@@ -23664,7 +23863,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
         <v>654</v>
       </c>
@@ -23688,7 +23887,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3">
         <v>655</v>
       </c>
@@ -23712,7 +23911,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3">
         <v>656</v>
       </c>
@@ -23736,7 +23935,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3">
         <v>657</v>
       </c>
@@ -23760,7 +23959,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3">
         <v>658</v>
       </c>
@@ -23784,7 +23983,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3">
         <v>659</v>
       </c>
@@ -23808,7 +24007,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3">
         <v>660</v>
       </c>
@@ -23832,7 +24031,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3">
         <v>661</v>
       </c>
@@ -23856,7 +24055,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3">
         <v>662</v>
       </c>
@@ -23880,7 +24079,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3">
         <v>663</v>
       </c>
@@ -23904,7 +24103,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3">
         <v>664</v>
       </c>
@@ -23928,7 +24127,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3">
         <v>665</v>
       </c>
@@ -23952,7 +24151,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3">
         <v>666</v>
       </c>
@@ -23976,7 +24175,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3">
         <v>667</v>
       </c>
@@ -24000,7 +24199,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3">
         <v>668</v>
       </c>
@@ -24024,7 +24223,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3">
         <v>669</v>
       </c>
@@ -24048,7 +24247,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3">
         <v>670</v>
       </c>
@@ -24072,7 +24271,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3">
         <v>671</v>
       </c>
@@ -24096,7 +24295,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3">
         <v>672</v>
       </c>
@@ -24120,7 +24319,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3">
         <v>673</v>
       </c>
@@ -24144,7 +24343,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3">
         <v>674</v>
       </c>
@@ -24168,7 +24367,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3">
         <v>675</v>
       </c>
@@ -24192,7 +24391,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3">
         <v>676</v>
       </c>
@@ -24216,7 +24415,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3">
         <v>677</v>
       </c>
@@ -24240,7 +24439,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3">
         <v>678</v>
       </c>
@@ -24264,7 +24463,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3">
         <v>679</v>
       </c>
@@ -24288,7 +24487,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3">
         <v>680</v>
       </c>
@@ -24360,7 +24559,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3">
         <v>683</v>
       </c>
@@ -24384,7 +24583,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3">
         <v>684</v>
       </c>
@@ -24408,7 +24607,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3">
         <v>685</v>
       </c>
@@ -24432,7 +24631,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3">
         <v>686</v>
       </c>
@@ -24456,7 +24655,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3">
         <v>687</v>
       </c>
@@ -24480,7 +24679,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3">
         <v>688</v>
       </c>
@@ -24504,7 +24703,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3">
         <v>689</v>
       </c>
@@ -24552,7 +24751,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3">
         <v>691</v>
       </c>
@@ -24576,7 +24775,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3">
         <v>692</v>
       </c>
@@ -24624,7 +24823,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3">
         <v>694</v>
       </c>
@@ -24648,7 +24847,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3">
         <v>695</v>
       </c>
@@ -24672,7 +24871,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3">
         <v>696</v>
       </c>
@@ -24696,7 +24895,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3">
         <v>697</v>
       </c>
@@ -24720,7 +24919,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3">
         <v>698</v>
       </c>
@@ -24744,7 +24943,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3">
         <v>699</v>
       </c>
@@ -24768,7 +24967,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3">
         <v>700</v>
       </c>
@@ -24792,7 +24991,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3">
         <v>701</v>
       </c>
@@ -24816,7 +25015,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3">
         <v>702</v>
       </c>
@@ -24840,7 +25039,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3">
         <v>703</v>
       </c>
@@ -24864,7 +25063,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>704</v>
       </c>
@@ -24888,7 +25087,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3">
         <v>705</v>
       </c>
@@ -24912,7 +25111,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>706</v>
       </c>
@@ -24936,7 +25135,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>707</v>
       </c>
@@ -24960,7 +25159,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>708</v>
       </c>
@@ -24984,7 +25183,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3">
         <v>709</v>
       </c>
@@ -25032,7 +25231,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3">
         <v>711</v>
       </c>
@@ -25056,7 +25255,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>712</v>
       </c>
@@ -25104,7 +25303,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>714</v>
       </c>
@@ -25128,7 +25327,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3">
         <v>715</v>
       </c>
@@ -25152,7 +25351,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>716</v>
       </c>
@@ -25176,7 +25375,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3">
         <v>717</v>
       </c>
@@ -25200,7 +25399,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>718</v>
       </c>
@@ -25224,7 +25423,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3">
         <v>719</v>
       </c>
@@ -25248,7 +25447,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3">
         <v>720</v>
       </c>
@@ -25272,7 +25471,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3">
         <v>721</v>
       </c>
@@ -25296,7 +25495,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3">
         <v>722</v>
       </c>
@@ -25344,7 +25543,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3">
         <v>724</v>
       </c>
@@ -25368,7 +25567,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3">
         <v>725</v>
       </c>
@@ -25416,7 +25615,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3">
         <v>727</v>
       </c>
@@ -25440,7 +25639,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3">
         <v>728</v>
       </c>
@@ -25464,7 +25663,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3">
         <v>729</v>
       </c>
@@ -25488,7 +25687,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3">
         <v>730</v>
       </c>
@@ -25512,7 +25711,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3">
         <v>731</v>
       </c>
@@ -25536,7 +25735,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3">
         <v>732</v>
       </c>
@@ -25560,7 +25759,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3">
         <v>733</v>
       </c>
@@ -25584,7 +25783,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3">
         <v>734</v>
       </c>
@@ -25608,7 +25807,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3">
         <v>735</v>
       </c>
@@ -25632,7 +25831,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3">
         <v>736</v>
       </c>
@@ -25656,7 +25855,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3">
         <v>737</v>
       </c>
@@ -25680,7 +25879,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3">
         <v>738</v>
       </c>
@@ -25704,7 +25903,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3">
         <v>739</v>
       </c>
@@ -25728,7 +25927,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3">
         <v>740</v>
       </c>
@@ -25752,7 +25951,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3">
         <v>741</v>
       </c>
@@ -25776,7 +25975,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3">
         <v>742</v>
       </c>
@@ -25800,7 +25999,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3">
         <v>743</v>
       </c>
@@ -25824,7 +26023,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3">
         <v>744</v>
       </c>
@@ -25848,7 +26047,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3">
         <v>745</v>
       </c>
@@ -25872,7 +26071,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3">
         <v>746</v>
       </c>
@@ -25896,7 +26095,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3">
         <v>747</v>
       </c>
@@ -25920,7 +26119,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3">
         <v>748</v>
       </c>
@@ -25944,7 +26143,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3">
         <v>749</v>
       </c>
@@ -25968,7 +26167,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3">
         <v>750</v>
       </c>
@@ -25992,7 +26191,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3">
         <v>751</v>
       </c>
@@ -26016,7 +26215,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3">
         <v>752</v>
       </c>
@@ -26040,7 +26239,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3">
         <v>753</v>
       </c>
@@ -26064,7 +26263,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3">
         <v>754</v>
       </c>
@@ -26088,7 +26287,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3">
         <v>755</v>
       </c>
@@ -26112,7 +26311,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3">
         <v>756</v>
       </c>
@@ -26184,7 +26383,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3">
         <v>759</v>
       </c>
@@ -26208,7 +26407,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3">
         <v>760</v>
       </c>
@@ -26232,7 +26431,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3">
         <v>761</v>
       </c>
@@ -26256,7 +26455,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3">
         <v>762</v>
       </c>
@@ -26280,7 +26479,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3">
         <v>763</v>
       </c>
@@ -26304,7 +26503,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3">
         <v>764</v>
       </c>
@@ -26328,7 +26527,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3">
         <v>765</v>
       </c>
@@ -26376,7 +26575,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3">
         <v>767</v>
       </c>
@@ -26400,7 +26599,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3">
         <v>768</v>
       </c>
@@ -26448,7 +26647,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3">
         <v>770</v>
       </c>
@@ -26472,7 +26671,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3">
         <v>771</v>
       </c>
@@ -26496,7 +26695,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3">
         <v>772</v>
       </c>
@@ -26520,7 +26719,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3">
         <v>773</v>
       </c>
@@ -26544,7 +26743,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3">
         <v>774</v>
       </c>
@@ -26568,7 +26767,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3">
         <v>775</v>
       </c>
@@ -26592,7 +26791,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3">
         <v>776</v>
       </c>
@@ -26616,7 +26815,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3">
         <v>777</v>
       </c>
@@ -26640,7 +26839,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3">
         <v>778</v>
       </c>
@@ -26664,7 +26863,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3">
         <v>779</v>
       </c>
@@ -26688,7 +26887,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3">
         <v>780</v>
       </c>
@@ -26712,7 +26911,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3">
         <v>781</v>
       </c>
@@ -26736,7 +26935,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3">
         <v>782</v>
       </c>
@@ -26784,7 +26983,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3">
         <v>784</v>
       </c>
@@ -26808,7 +27007,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3">
         <v>785</v>
       </c>
@@ -26856,7 +27055,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3">
         <v>787</v>
       </c>
@@ -26880,7 +27079,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3">
         <v>788</v>
       </c>
@@ -26928,7 +27127,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3">
         <v>790</v>
       </c>
@@ -26952,7 +27151,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3">
         <v>791</v>
       </c>
@@ -26976,7 +27175,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3">
         <v>792</v>
       </c>
@@ -27000,7 +27199,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3">
         <v>793</v>
       </c>
@@ -27024,7 +27223,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3">
         <v>794</v>
       </c>
@@ -27048,7 +27247,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3">
         <v>795</v>
       </c>
@@ -27096,7 +27295,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3">
         <v>797</v>
       </c>
@@ -27120,7 +27319,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3">
         <v>798</v>
       </c>
@@ -27168,7 +27367,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3">
         <v>800</v>
       </c>
@@ -27192,7 +27391,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3">
         <v>801</v>
       </c>
@@ -27240,7 +27439,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3">
         <v>803</v>
       </c>
@@ -27264,7 +27463,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3">
         <v>804</v>
       </c>
@@ -27288,7 +27487,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3">
         <v>805</v>
       </c>
@@ -27312,7 +27511,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3">
         <v>806</v>
       </c>
@@ -27336,7 +27535,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3">
         <v>807</v>
       </c>
@@ -27360,7 +27559,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3">
         <v>808</v>
       </c>
@@ -27384,7 +27583,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3">
         <v>809</v>
       </c>
@@ -27408,7 +27607,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3">
         <v>810</v>
       </c>
@@ -27432,7 +27631,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3">
         <v>811</v>
       </c>
@@ -27456,7 +27655,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3">
         <v>812</v>
       </c>
@@ -27480,7 +27679,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3">
         <v>813</v>
       </c>
@@ -27504,7 +27703,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3">
         <v>814</v>
       </c>
@@ -27528,7 +27727,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3">
         <v>815</v>
       </c>
@@ -27552,7 +27751,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3">
         <v>816</v>
       </c>
@@ -27576,7 +27775,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3">
         <v>817</v>
       </c>
@@ -27600,7 +27799,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3">
         <v>818</v>
       </c>
@@ -27624,7 +27823,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3">
         <v>819</v>
       </c>
@@ -27648,7 +27847,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3">
         <v>820</v>
       </c>
@@ -27672,7 +27871,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3">
         <v>821</v>
       </c>
@@ -27696,7 +27895,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3">
         <v>822</v>
       </c>
@@ -27720,7 +27919,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3">
         <v>823</v>
       </c>
@@ -27744,7 +27943,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3">
         <v>824</v>
       </c>
@@ -27768,7 +27967,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3">
         <v>825</v>
       </c>
@@ -27792,7 +27991,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3">
         <v>826</v>
       </c>
@@ -27816,7 +28015,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3">
         <v>827</v>
       </c>
@@ -27840,7 +28039,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3">
         <v>828</v>
       </c>
@@ -27864,7 +28063,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3">
         <v>829</v>
       </c>
@@ -27888,7 +28087,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3">
         <v>830</v>
       </c>
@@ -27912,7 +28111,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3">
         <v>831</v>
       </c>
@@ -27936,7 +28135,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3">
         <v>832</v>
       </c>
@@ -27961,10 +28160,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G834"/>
+  <autoFilter ref="A1:G834">
+    <filterColumn colId="4">
+      <colorFilter dxfId="5"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E15:E834">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27976,7 +28179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B820"/>
   <sheetViews>
-    <sheetView topLeftCell="A685" workbookViewId="0">
+    <sheetView topLeftCell="A695" workbookViewId="0">
       <selection activeCell="A760" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -34550,480 +34753,2425 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <f>E2/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <f>IFERROR(D2/E2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <f>IFERROR(D3/E3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($B4,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($B4,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <f>E4/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <f>IFERROR(D4/E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($B5,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($B5,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>93</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5/88105</f>
+        <v>1.0555587083593439E-3</v>
+      </c>
+      <c r="G5" s="15">
+        <f>IFERROR(D5/E5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($B6,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>73307</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($B6,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <f>E6/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <f>IFERROR(D6/E6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($B7,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($B7,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <f>E7/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <f>IFERROR(D7/E7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($B8,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($B8,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <f>E8/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <f>IFERROR(D8/E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($B9,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($B9,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>E9/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>IFERROR(D9/E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($B10,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($B10,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>IFERROR(D10/E10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($B11,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>88105</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($B11,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f>IFERROR(D11/E11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($B12,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($B12,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f>E12/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f>IFERROR(D12/E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D13" s="12">
+        <f>VLOOKUP($B13,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f>VLOOKUP($B13,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F13" s="11">
+        <f>E13/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G13" s="15">
+        <f>IFERROR(D13/E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D14" s="12">
+        <f>VLOOKUP($B14,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <f>VLOOKUP($B14,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F14" s="11">
+        <f>E14/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G14" s="15">
+        <f>IFERROR(D14/E14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D15" s="12">
+        <f>VLOOKUP($B15,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <f>VLOOKUP($B15,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F15" s="11">
+        <f>E15/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G15" s="15">
+        <f>IFERROR(D15/E15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D16" s="12">
+        <f>VLOOKUP($B16,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <f>VLOOKUP($B16,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F16" s="11">
+        <f>E16/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G16" s="15">
+        <f>IFERROR(D16/E16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D17" s="12">
+        <f>VLOOKUP($B17,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <f>VLOOKUP($B17,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F17" s="11">
+        <f>E17/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G17" s="15">
+        <f>IFERROR(D17/E17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D18" s="12">
+        <f>VLOOKUP($B18,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <f>VLOOKUP($B18,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>86622</v>
+      </c>
+      <c r="F18" s="11">
+        <f>E18/88105</f>
+        <v>0.98316781113444185</v>
+      </c>
+      <c r="G18" s="15">
+        <f>IFERROR(D18/E18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D19" s="12">
+        <f>VLOOKUP($B19,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>VLOOKUP($B19,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>87019</v>
+      </c>
+      <c r="F19" s="11">
+        <f>E19/88105</f>
+        <v>0.98767379830883606</v>
+      </c>
+      <c r="G19" s="15">
+        <f>IFERROR(D19/E19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D20" s="12">
+        <f>VLOOKUP($B20,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <f>VLOOKUP($B20,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>87149</v>
+      </c>
+      <c r="F20" s="11">
+        <f>E20/88105</f>
+        <v>0.98914931048181143</v>
+      </c>
+      <c r="G20" s="15">
+        <f>IFERROR(D20/E20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D21" s="12">
+        <f>VLOOKUP($B21,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <f>VLOOKUP($B21,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F21" s="11">
+        <f>E21/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G21" s="15">
+        <f>IFERROR(D21/E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D22" s="12">
+        <f>VLOOKUP($B22,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <f>VLOOKUP($B22,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F22" s="11">
+        <f>E22/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G22" s="15">
+        <f>IFERROR(D22/E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D23" s="12">
+        <f>VLOOKUP($B23,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <f>VLOOKUP($B23,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F23" s="11">
+        <f>E23/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G23" s="15">
+        <f>IFERROR(D23/E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D24" s="12">
+        <f>VLOOKUP($B24,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <f>VLOOKUP($B24,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F24" s="11">
+        <f>E24/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G24" s="15">
+        <f>IFERROR(D24/E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D25" s="12">
+        <f>VLOOKUP($B25,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f>VLOOKUP($B25,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>85078</v>
+      </c>
+      <c r="F25" s="11">
+        <f>E25/88105</f>
+        <v>0.9656432665569491</v>
+      </c>
+      <c r="G25" s="15">
+        <f>IFERROR(D25/E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D26" s="12">
+        <f>VLOOKUP($B26,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <f>VLOOKUP($B26,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>86410</v>
+      </c>
+      <c r="F26" s="11">
+        <f>E26/88105</f>
+        <v>0.98076159128312812</v>
+      </c>
+      <c r="G26" s="15">
+        <f>IFERROR(D26/E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D27" s="12">
+        <f>VLOOKUP($B27,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <f>VLOOKUP($B27,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>86811</v>
+      </c>
+      <c r="F27" s="11">
+        <f>E27/88105</f>
+        <v>0.98531297883207536</v>
+      </c>
+      <c r="G27" s="15">
+        <f>IFERROR(D27/E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D28" s="12">
+        <f>VLOOKUP($B28,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <f>VLOOKUP($B28,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>86967</v>
+      </c>
+      <c r="F28" s="11">
+        <f>E28/88105</f>
+        <v>0.98708359343964591</v>
+      </c>
+      <c r="G28" s="15">
+        <f>IFERROR(D28/E28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($B29,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($B29,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <f>E29/88105</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f>IFERROR(D29/E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D30" s="12">
+        <f>VLOOKUP($B30,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <f>VLOOKUP($B30,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>27563</v>
+      </c>
+      <c r="F30" s="11">
+        <f>E30/88105</f>
+        <v>0.31284263095170534</v>
+      </c>
+      <c r="G30" s="15">
+        <f>IFERROR(D30/E30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D31" s="12">
+        <f>VLOOKUP($B31,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f>VLOOKUP($B31,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F31" s="11">
+        <f>E31/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G31" s="15">
+        <f>IFERROR(D31/E31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>37</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D32" s="12">
+        <f>VLOOKUP($B32,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <f>VLOOKUP($B32,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F32" s="11">
+        <f>E32/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G32" s="15">
+        <f>IFERROR(D32/E32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>51</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D33" s="12">
+        <f>VLOOKUP($B33,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <f>VLOOKUP($B33,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F33" s="11">
+        <f>E33/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G33" s="15">
+        <f>IFERROR(D33/E33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>36</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D34" s="12">
+        <f>VLOOKUP($B34,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E34" s="12">
+        <f>VLOOKUP($B34,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F34" s="11">
+        <f>E34/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G34" s="15">
+        <f>IFERROR(D34/E34,0)</f>
+        <v>5.6335383315337306E-4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>50</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D35" s="12">
+        <f>VLOOKUP($B35,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E35" s="12">
+        <f>VLOOKUP($B35,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F35" s="11">
+        <f>E35/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G35" s="15">
+        <f>IFERROR(D35/E35,0)</f>
+        <v>6.5724613867893531E-4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>44</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D36" s="12">
+        <f>VLOOKUP($B36,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="E36" s="12">
+        <f>VLOOKUP($B36,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F36" s="11">
+        <f>E36/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G36" s="15">
+        <f>IFERROR(D36/E36,0)</f>
+        <v>7.5113844420449745E-4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>48</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D37" s="12">
+        <f>VLOOKUP($B37,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="E37" s="12">
+        <f>VLOOKUP($B37,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F37" s="11">
+        <f>E37/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G37" s="15">
+        <f>IFERROR(D37/E37,0)</f>
+        <v>7.5113844420449745E-4</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>30</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D38" s="12">
+        <f>VLOOKUP($B38,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E38" s="12">
+        <f>VLOOKUP($B38,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F38" s="11">
+        <f>E38/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G38" s="15">
+        <f>IFERROR(D38/E38,0)</f>
+        <v>1.0328153607811841E-3</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D39" s="12">
+        <f>VLOOKUP($B39,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E39" s="12">
+        <f>VLOOKUP($B39,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F39" s="11">
+        <f>E39/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G39" s="15">
+        <f>IFERROR(D39/E39,0)</f>
+        <v>1.0328153607811841E-3</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>45</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D40" s="12">
+        <f>VLOOKUP($B40,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>1379</v>
+      </c>
+      <c r="E40" s="12">
+        <f>VLOOKUP($B40,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F40" s="11">
+        <f>E40/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G40" s="15">
+        <f>IFERROR(D40/E40,0)</f>
+        <v>6.4738744659875128E-2</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>49</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D41" s="12">
+        <f>VLOOKUP($B41,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>1379</v>
+      </c>
+      <c r="E41" s="12">
+        <f>VLOOKUP($B41,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F41" s="11">
+        <f>E41/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G41" s="15">
+        <f>IFERROR(D41/E41,0)</f>
+        <v>6.4738744659875128E-2</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>47</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D42" s="12">
+        <f>VLOOKUP($B42,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>1717</v>
+      </c>
+      <c r="E42" s="12">
+        <f>VLOOKUP($B42,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F42" s="11">
+        <f>E42/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G42" s="15">
+        <f>IFERROR(D42/E42,0)</f>
+        <v>8.0606544293695126E-2</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>46</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D43" s="12">
+        <f>VLOOKUP($B43,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>1731</v>
+      </c>
+      <c r="E43" s="12">
+        <f>VLOOKUP($B43,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F43" s="11">
+        <f>E43/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G43" s="15">
+        <f>IFERROR(D43/E43,0)</f>
+        <v>8.126379043237407E-2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>31</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D44" s="5">
+        <f>VLOOKUP($B44,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>7641</v>
+      </c>
+      <c r="E44" s="5">
+        <f>VLOOKUP($B44,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F44" s="11">
+        <f>E44/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G44" s="15">
+        <f>IFERROR(D44/E44,0)</f>
+        <v>0.35871555326041032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>35</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D45" s="5">
+        <f>VLOOKUP($B45,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>7641</v>
+      </c>
+      <c r="E45" s="5">
+        <f>VLOOKUP($B45,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F45" s="11">
+        <f>E45/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G45" s="15">
+        <f>IFERROR(D45/E45,0)</f>
+        <v>0.35871555326041032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>33</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D46" s="5">
+        <f>VLOOKUP($B46,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>7990</v>
+      </c>
+      <c r="E46" s="5">
+        <f>VLOOKUP($B46,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F46" s="11">
+        <f>E46/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G46" s="15">
+        <f>IFERROR(D46/E46,0)</f>
+        <v>0.37509976057462091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>32</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D47" s="5">
+        <f>VLOOKUP($B47,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>8002</v>
+      </c>
+      <c r="E47" s="5">
+        <f>VLOOKUP($B47,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>21301</v>
+      </c>
+      <c r="F47" s="11">
+        <f>E47/88105</f>
+        <v>0.24176834458884286</v>
+      </c>
+      <c r="G47" s="15">
+        <f>IFERROR(D47/E47,0)</f>
+        <v>0.37566311440777428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>40</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D48" s="5">
+        <f>VLOOKUP($B48,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>26720</v>
+      </c>
+      <c r="E48" s="5">
+        <f>VLOOKUP($B48,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>53667</v>
+      </c>
+      <c r="F48" s="11">
+        <f>E48/88105</f>
+        <v>0.60912547528517114</v>
+      </c>
+      <c r="G48" s="15">
+        <f>IFERROR(D48/E48,0)</f>
+        <v>0.49788510630368754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>41</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D49" s="5">
+        <f>VLOOKUP($B49,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>26720</v>
+      </c>
+      <c r="E49" s="5">
+        <f>VLOOKUP($B49,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>53667</v>
+      </c>
+      <c r="F49" s="11">
+        <f>E49/88105</f>
+        <v>0.60912547528517114</v>
+      </c>
+      <c r="G49" s="15">
+        <f>IFERROR(D49/E49,0)</f>
+        <v>0.49788510630368754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>42</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D50" s="5">
+        <f>VLOOKUP($B50,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>27014</v>
+      </c>
+      <c r="E50" s="5">
+        <f>VLOOKUP($B50,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>50559</v>
+      </c>
+      <c r="F50" s="11">
+        <f>E50/88105</f>
+        <v>0.57384938425742016</v>
+      </c>
+      <c r="G50" s="15">
+        <f>IFERROR(D50/E50,0)</f>
+        <v>0.53430645384600173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>43</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D51" s="5">
+        <f>VLOOKUP($B51,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>27014</v>
+      </c>
+      <c r="E51" s="5">
+        <f>VLOOKUP($B51,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>50559</v>
+      </c>
+      <c r="F51" s="11">
+        <f>E51/88105</f>
+        <v>0.57384938425742016</v>
+      </c>
+      <c r="G51" s="15">
+        <f>IFERROR(D51/E51,0)</f>
+        <v>0.53430645384600173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>38</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D52" s="5">
+        <f>VLOOKUP($B52,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>31275</v>
+      </c>
+      <c r="E52" s="5">
+        <f>VLOOKUP($B52,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>47751</v>
+      </c>
+      <c r="F52" s="11">
+        <f>E52/88105</f>
+        <v>0.54197832132115087</v>
+      </c>
+      <c r="G52" s="15">
+        <f>IFERROR(D52/E52,0)</f>
+        <v>0.65496010554752782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>39</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D53" s="5">
+        <f>VLOOKUP($B53,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>31283</v>
+      </c>
+      <c r="E53" s="5">
+        <f>VLOOKUP($B53,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>47751</v>
+      </c>
+      <c r="F53" s="11">
+        <f>E53/88105</f>
+        <v>0.54197832132115087</v>
+      </c>
+      <c r="G53" s="15">
+        <f>IFERROR(D53/E53,0)</f>
+        <v>0.65512764130594126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>56</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D54" s="5">
+        <f>VLOOKUP($B54,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>26484</v>
+      </c>
+      <c r="E54" s="5">
+        <f>VLOOKUP($B54,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>33204</v>
+      </c>
+      <c r="F54" s="11">
+        <f>E54/88105</f>
+        <v>0.37686850916520059</v>
+      </c>
+      <c r="G54" s="15">
+        <f>IFERROR(D54/E54,0)</f>
+        <v>0.79761474521142028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>57</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D55" s="5">
+        <f>VLOOKUP($B55,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>26484</v>
+      </c>
+      <c r="E55" s="5">
+        <f>VLOOKUP($B55,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>33204</v>
+      </c>
+      <c r="F55" s="11">
+        <f>E55/88105</f>
+        <v>0.37686850916520059</v>
+      </c>
+      <c r="G55" s="15">
+        <f>IFERROR(D55/E55,0)</f>
+        <v>0.79761474521142028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D56" s="5">
+        <f>VLOOKUP($B56,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>30738</v>
+      </c>
+      <c r="E56" s="5">
+        <f>VLOOKUP($B56,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>35346</v>
+      </c>
+      <c r="F56" s="11">
+        <f>E56/88105</f>
+        <v>0.40118040973838032</v>
+      </c>
+      <c r="G56" s="15">
+        <f>IFERROR(D56/E56,0)</f>
+        <v>0.86963164148701411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D57" s="5">
+        <f>VLOOKUP($B57,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>30738</v>
+      </c>
+      <c r="E57" s="5">
+        <f>VLOOKUP($B57,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>35346</v>
+      </c>
+      <c r="F57" s="11">
+        <f>E57/88105</f>
+        <v>0.40118040973838032</v>
+      </c>
+      <c r="G57" s="15">
+        <f>IFERROR(D57/E57,0)</f>
+        <v>0.86963164148701411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>52</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D58" s="5">
+        <f>VLOOKUP($B58,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>27344</v>
+      </c>
+      <c r="E58" s="5">
+        <f>VLOOKUP($B58,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>31373</v>
+      </c>
+      <c r="F58" s="11">
+        <f>E58/88105</f>
+        <v>0.35608648771352364</v>
+      </c>
+      <c r="G58" s="15">
+        <f>IFERROR(D58/E58,0)</f>
+        <v>0.8715774710738533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D59" s="5">
+        <f>VLOOKUP($B59,alm_0_部分值分布统计!$A:$C,2,0)</f>
+        <v>27365</v>
+      </c>
+      <c r="E59" s="5">
+        <f>VLOOKUP($B59,alm_0_部分值分布统计!$A:$C,3,0)</f>
+        <v>31373</v>
+      </c>
+      <c r="F59" s="11">
+        <f>E59/88105</f>
+        <v>0.35608648771352364</v>
+      </c>
+      <c r="G59" s="15">
+        <f>IFERROR(D59/E59,0)</f>
+        <v>0.87224683645172596</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:I59">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>73307</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>827</v>
+      </c>
+      <c r="B12">
+        <v>88105</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B13">
+        <v>85078</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>86622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>87019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>87149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>85078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>86410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>86811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>86967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B30">
+        <v>21301</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>27563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B34">
+        <v>7641</v>
+      </c>
+      <c r="C34">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B35">
+        <v>8002</v>
+      </c>
+      <c r="C35">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B36">
+        <v>7990</v>
+      </c>
+      <c r="C36">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B38">
+        <v>7641</v>
+      </c>
+      <c r="C38">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B41">
+        <v>31275</v>
+      </c>
+      <c r="C41">
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B42">
+        <v>31283</v>
+      </c>
+      <c r="C42">
+        <v>47751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B43">
+        <v>26720</v>
+      </c>
+      <c r="C43">
+        <v>53667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B44">
+        <v>26720</v>
+      </c>
+      <c r="C44">
+        <v>53667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B45">
+        <v>27014</v>
+      </c>
+      <c r="C45">
+        <v>50559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B46">
+        <v>27014</v>
+      </c>
+      <c r="C46">
+        <v>50559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B47">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>825</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>826</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>827</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2403</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2406</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2410</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2412</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2422</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2426</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2463</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C47">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>2471</v>
       </c>
-      <c r="B46" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>1379</v>
+      </c>
+      <c r="C48">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>2473</v>
       </c>
-      <c r="B47" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49">
+        <v>1731</v>
+      </c>
+      <c r="C49">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>2475</v>
       </c>
-      <c r="B48" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>1717</v>
+      </c>
+      <c r="C50">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>2477</v>
       </c>
-      <c r="B49" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>2479</v>
       </c>
-      <c r="B50" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>1379</v>
+      </c>
+      <c r="C52">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>2481</v>
       </c>
-      <c r="B51" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>2483</v>
       </c>
-      <c r="B52" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>2485</v>
       </c>
-      <c r="B53" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>27344</v>
+      </c>
+      <c r="C55">
+        <v>31373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>2487</v>
       </c>
-      <c r="B54" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>27365</v>
+      </c>
+      <c r="C56">
+        <v>31373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>2489</v>
       </c>
-      <c r="B55" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>30738</v>
+      </c>
+      <c r="C57">
+        <v>35346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>2491</v>
       </c>
-      <c r="B56" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>30738</v>
+      </c>
+      <c r="C58">
+        <v>35346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>2493</v>
       </c>
-      <c r="B57" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>26484</v>
+      </c>
+      <c r="C59">
+        <v>33204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>2495</v>
       </c>
-      <c r="B58" t="s">
-        <v>2496</v>
+      <c r="B60">
+        <v>26484</v>
+      </c>
+      <c r="C60">
+        <v>33204</v>
       </c>
     </row>
   </sheetData>
@@ -35032,12 +37180,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/EDA/EDA.xlsx
+++ b/EDA/EDA.xlsx
@@ -34758,8 +34758,8 @@
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/EDA/EDA.xlsx
+++ b/EDA/EDA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="2517">
   <si>
     <t>cus_num</t>
   </si>
@@ -7588,6 +7588,18 @@
   </si>
   <si>
     <t>0值比Nan值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media_max_m3_days_prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media_tot_m3_visitdays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7789,37 +7801,7 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -28162,7 +28144,7 @@
   </sheetData>
   <autoFilter ref="A1:G834">
     <filterColumn colId="4">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34758,8 +34740,11 @@
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -35134,7 +35119,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>2404</v>
+        <v>2516</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2405</v>
@@ -35254,7 +35239,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>2412</v>
+        <v>2515</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2413</v>
@@ -36193,8 +36178,11 @@
         <f>IFERROR(D48/E48,0)</f>
         <v>0.49788510630368754</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>41</v>
       </c>
@@ -36220,8 +36208,11 @@
         <f>IFERROR(D49/E49,0)</f>
         <v>0.49788510630368754</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>42</v>
       </c>
@@ -36247,8 +36238,11 @@
         <f>IFERROR(D50/E50,0)</f>
         <v>0.53430645384600173</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>43</v>
       </c>
@@ -36274,8 +36268,11 @@
         <f>IFERROR(D51/E51,0)</f>
         <v>0.53430645384600173</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>38</v>
       </c>
@@ -36301,8 +36298,11 @@
         <f>IFERROR(D52/E52,0)</f>
         <v>0.65496010554752782</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>39</v>
       </c>
@@ -36328,8 +36328,11 @@
         <f>IFERROR(D53/E53,0)</f>
         <v>0.65512764130594126</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>56</v>
       </c>
@@ -36355,8 +36358,11 @@
         <f>IFERROR(D54/E54,0)</f>
         <v>0.79761474521142028</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>57</v>
       </c>
@@ -36382,8 +36388,11 @@
         <f>IFERROR(D55/E55,0)</f>
         <v>0.79761474521142028</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>54</v>
       </c>
@@ -36409,8 +36418,11 @@
         <f>IFERROR(D56/E56,0)</f>
         <v>0.86963164148701411</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>55</v>
       </c>
@@ -36436,8 +36448,11 @@
         <f>IFERROR(D57/E57,0)</f>
         <v>0.86963164148701411</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>52</v>
       </c>
@@ -36463,8 +36478,11 @@
         <f>IFERROR(D58/E58,0)</f>
         <v>0.8715774710738533</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>53</v>
       </c>
@@ -36489,6 +36507,9 @@
       <c r="G59" s="15">
         <f>IFERROR(D59/E59,0)</f>
         <v>0.87224683645172596</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>2514</v>
       </c>
     </row>
   </sheetData>
